--- a/Experiments/PETA_TMAG_Solves.xlsx
+++ b/Experiments/PETA_TMAG_Solves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\PETA,TMAG_viscosity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17911F3A-D097-4B2A-9518-E558AC5B1881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C167128B-A5DB-4B77-A901-A80CDD4F0532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>ro 
 спирт</t>
@@ -132,6 +132,9 @@
   <si>
     <t>DMAG + бутанол1</t>
   </si>
+  <si>
+    <t>спирт</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +260,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,59 +437,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -815,6 +794,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1235,6 +1238,30 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <protection locked="1" hidden="0"/>
@@ -1408,59 +1435,59 @@
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_основа" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_основа" dataDxfId="43">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*(1-P3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="42">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*P3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="41">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смесь" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="39">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смесь" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="38">
       <calculatedColumnFormula>(Эксперимент[[#This Row],[m0
 смесь]]*Эксперимент[[#This Row],[w%
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирт" dataDxfId="38">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирт" dataDxfId="37">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m1
 смесь]]-Эксперимент[[#This Row],[m0
 смесь]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="37">
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="36">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смесь" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_основа" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="m3 г_x000a_пик" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="m3 г_x000a_смесь     " dataDxfId="31">
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смесь" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_основа" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="m3 г_x000a_пик" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="m3 г_x000a_смесь     " dataDxfId="30">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент[[#This Row],[m3 г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="30">
+    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="29">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="29">
+    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="28">
       <calculatedColumnFormula>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С основа_x000a_М" dataDxfId="28">
+    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С основа_x000a_М" dataDxfId="27">
       <calculatedColumnFormula>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</calculatedColumnFormula>
@@ -1471,19 +1498,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="H1:H2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="H1:H2" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="H1:H2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="Q1:S2" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="Q1:S2" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="Q1:S2" xr:uid="{06838B1B-BD17-4A05-B569-F0CD134B544A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1499,92 +1526,92 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{135B867F-D8CD-447A-8E8A-8E6EF0A34F0B}" name="Эксперимент4" displayName="Эксперимент4" ref="B10:V15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{135B867F-D8CD-447A-8E8A-8E6EF0A34F0B}" name="Эксперимент4" displayName="Эксперимент4" ref="B10:V15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B10:V15" xr:uid="{5C9C155A-EA36-4613-9A58-A0552F934C86}"/>
   <tableColumns count="21">
-    <tableColumn id="6" xr3:uid="{9B58110A-1E2E-49D7-8736-B143A65AD081}" name="w%_x000a_спирт " dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{BC2FA3FB-D4F1-48F3-913D-1D1A514F7F89}" name="m_x000a_стакан" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{EAD83506-1932-4D98-80B3-87D93ECEEAF8}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{9411E5F6-21B0-4559-8CE1-0A3BA332DC20}" name="m0_x000a_смесь" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{9B58110A-1E2E-49D7-8736-B143A65AD081}" name="w%_x000a_спирт " dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{BC2FA3FB-D4F1-48F3-913D-1D1A514F7F89}" name="m_x000a_стакан" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{EAD83506-1932-4D98-80B3-87D93ECEEAF8}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9411E5F6-21B0-4559-8CE1-0A3BA332DC20}" name="m0_x000a_смесь" dataDxfId="17">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{423AC4A4-21BE-49FC-9433-167AFE642CC3}" name="m0_x000a_основа" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{423AC4A4-21BE-49FC-9433-167AFE642CC3}" name="m0_x000a_основа" dataDxfId="16">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
 смесь]]*(1-P10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DA6A591A-2853-4418-82E0-5CF32E1264DB}" name="m0_x000a_спирт" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{DA6A591A-2853-4418-82E0-5CF32E1264DB}" name="m0_x000a_спирт" dataDxfId="15">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
 смесь]]*P10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA76B9BC-9840-40ED-9785-A9539425F03E}" name="V+ т_x000a_спирт" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{BA76B9BC-9840-40ED-9785-A9539425F03E}" name="V+ т_x000a_спирт" dataDxfId="14">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{378D6E8D-B5AB-44E3-B915-CF55A6D074FB}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{CF39265A-C218-42B5-B840-9114ADF9A972}" name="m1_x000a_смесь" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{378D6E8D-B5AB-44E3-B915-CF55A6D074FB}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{CF39265A-C218-42B5-B840-9114ADF9A972}" name="m1_x000a_смесь" dataDxfId="12">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{135AD849-5AEA-4E9B-A064-899AB8205CD6}" name="m+ т_x000a_спирт" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{135AD849-5AEA-4E9B-A064-899AB8205CD6}" name="m+ т_x000a_спирт" dataDxfId="11">
       <calculatedColumnFormula>(Эксперимент4[[#This Row],[m0
 смесь]]*Эксперимент4[[#This Row],[w%
 спирт ]]-Эксперимент4[[#This Row],[m0
 спирт]])/(1-Эксперимент4[[#This Row],[w%
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{58D419CE-B8D7-41DC-BB4F-031B0EED3CC2}" name="m+_x000a_спирт" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{58D419CE-B8D7-41DC-BB4F-031B0EED3CC2}" name="m+_x000a_спирт" dataDxfId="10">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m1
 смесь]]-Эксперимент4[[#This Row],[m0
 смесь]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C83597A6-A78F-4627-8C48-5B5B1199C79E}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{C83597A6-A78F-4627-8C48-5B5B1199C79E}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="9">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0FBADC72-0112-46D1-ABE4-7C1133AD7333}" name="m2_x000a_смесь" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{0FBADC72-0112-46D1-ABE4-7C1133AD7333}" name="m2_x000a_смесь" dataDxfId="8">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m2
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FBB646F6-F7E9-4DA0-A18F-D5F45B1DDAA2}" name="m+_x000a_основа" dataDxfId="9">
+    <tableColumn id="16" xr3:uid="{FBB646F6-F7E9-4DA0-A18F-D5F45B1DDAA2}" name="m+_x000a_основа" dataDxfId="7">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m2
 смесь
 стакан]]-Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A71C9B2E-9DE3-4A6F-AE67-99ACC0734AC4}" name="w%1 _x000a_" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{A71C9B2E-9DE3-4A6F-AE67-99ACC0734AC4}" name="w%1 _x000a_" dataDxfId="6">
       <calculatedColumnFormula>(Эксперимент4[[#This Row],[m0
 спирт]]+Эксперимент4[[#This Row],[m+
 спирт]])/Эксперимент4[[#This Row],[m2
 смесь]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F5F29640-ABAD-46C6-8E71-A0892582CBE8}" name="m3 г_x000a_пик" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{B64E6BD3-AF85-4582-BD4F-677587B64137}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{3959EE2F-BFF7-4AE3-B77C-44062C2E5D53}" name="m3 г_x000a_смесь     " dataDxfId="5">
+    <tableColumn id="18" xr3:uid="{F5F29640-ABAD-46C6-8E71-A0892582CBE8}" name="m3 г_x000a_пик" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{B64E6BD3-AF85-4582-BD4F-677587B64137}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{3959EE2F-BFF7-4AE3-B77C-44062C2E5D53}" name="m3 г_x000a_смесь     " dataDxfId="3">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент4[[#This Row],[m3 г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{B4D7640C-FBB2-4A28-B283-B25E5AE69BD1}" name="ro_x000a_смесь г/мл   " dataDxfId="4">
+    <tableColumn id="21" xr3:uid="{B4D7640C-FBB2-4A28-B283-B25E5AE69BD1}" name="ro_x000a_смесь г/мл   " dataDxfId="2">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{8F69145E-8AEE-4CCC-AE51-FC13903A6A48}" name="C спирт М " dataDxfId="3">
+    <tableColumn id="22" xr3:uid="{8F69145E-8AEE-4CCC-AE51-FC13903A6A48}" name="C спирт М " dataDxfId="1">
       <calculatedColumnFormula>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7FE6C2C6-CCCE-4DC1-B3A8-3168754E8355}" name="С основа_x000a_М" dataDxfId="2">
+    <tableColumn id="23" xr3:uid="{7FE6C2C6-CCCE-4DC1-B3A8-3168754E8355}" name="С основа_x000a_М" dataDxfId="0">
       <calculatedColumnFormula>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</calculatedColumnFormula>
@@ -1894,10 +1921,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1936,7 @@
     <col min="18" max="18" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,8 +1950,21 @@
       <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="W1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="32">
+        <v>4.7346000000000004</v>
+      </c>
+      <c r="Y1" s="32">
+        <v>8.8680000000000003</v>
+      </c>
+      <c r="Z1" s="33">
+        <f>(Y1-X1)/5</f>
+        <v>0.82667999999999997</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H2" s="2">
         <v>0.86</v>
       </c>
@@ -1939,7 +1979,7 @@
         <v>298.29000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>21</v>
       </c>
@@ -2121,7 +2161,7 @@
         <v>20.153206611016127</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="18">
         <v>0.05</v>
@@ -2238,7 +2278,7 @@
         <v>18.582181818956503</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="18">
         <v>0.1</v>
@@ -2355,7 +2395,7 @@
         <v>17.561581888127964</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
       <c r="B7" s="18">
         <v>0.15</v>
@@ -2472,7 +2512,7 @@
         <v>16.204144098905193</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="18">
         <v>0.2</v>
@@ -2589,8 +2629,8 @@
         <v>14.948930636220698</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:22" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:26" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
@@ -2656,7 +2696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2813,7 @@
         <v>18.011666499044555</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="18">
         <v>0.05</v>
@@ -2859,70 +2899,80 @@
 смесь]]</f>
         <v>4.8450083573925107E-2</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="11"/>
+      <c r="Q12" s="12">
+        <v>4.7344999999999997</v>
+      </c>
+      <c r="R12" s="11">
+        <v>10.107200000000001</v>
+      </c>
       <c r="S12" s="13">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент4[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.3727000000000009</v>
       </c>
       <c r="T12" s="14">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.0745400000000003</v>
       </c>
       <c r="U12" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>3.5119773882572507</v>
       </c>
       <c r="V12" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>17.13899975186018</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="18">
         <v>0.1</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="22">
+        <v>27.09656</v>
+      </c>
+      <c r="D13" s="23">
+        <v>39.407800000000002</v>
+      </c>
       <c r="E13" s="28">
         <f>Эксперимент4[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.311240000000002</v>
       </c>
       <c r="F13" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*(1-P12)</f>
-        <v>0</v>
+        <v>11.714759393101351</v>
       </c>
       <c r="G13" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*P12</f>
-        <v>0</v>
+        <v>0.59648060689864979</v>
       </c>
       <c r="H13" s="10">
         <f>Эксперимент4[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>819.9527042653109</v>
+      </c>
+      <c r="I13" s="7">
+        <v>40.0745</v>
+      </c>
       <c r="J13" s="9">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.97794</v>
       </c>
       <c r="K13" s="19">
         <f>(Эксперимент4[[#This Row],[m0
@@ -2930,26 +2980,26 @@
 спирт ]]-Эксперимент4[[#This Row],[m0
 спирт]])/(1-Эксперимент4[[#This Row],[w%
 спирт ]])</f>
-        <v>0</v>
+        <v>0.7051593256681673</v>
       </c>
       <c r="L13" s="20">
         <f>Эксперимент4[[#This Row],[m1
 смесь]]-Эксперимент4[[#This Row],[m0
 смесь]]</f>
-        <v>0</v>
+        <v>0.66669999999999874</v>
       </c>
       <c r="M13" s="11">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>40.0745</v>
       </c>
       <c r="N13" s="9">
         <f>Эксперимент4[[#This Row],[m2
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.97794</v>
       </c>
       <c r="O13" s="21">
         <f>Эксперимент4[[#This Row],[m2
@@ -2959,12 +3009,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P13" s="27" t="e">
+      <c r="P13" s="27">
         <f>(Эксперимент4[[#This Row],[m0
 спирт]]+Эксперимент4[[#This Row],[m+
 спирт]])/Эксперимент4[[#This Row],[m2
 смесь]]</f>
-        <v>#DIV/0!</v>
+        <v>9.7332905445598333E-2</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
@@ -2980,20 +3030,20 @@
 смесь     ]]/Плотности_доп[V пик мл]</f>
         <v>0</v>
       </c>
-      <c r="U13" s="15" t="e">
+      <c r="U13" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="18">
         <v>0.15</v>
@@ -3007,21 +3057,21 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="F14" s="29" t="e">
+      <c r="F14" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*(1-P13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*P13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="10" t="e">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <f>Эксперимент4[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
@@ -3031,13 +3081,13 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="K14" s="19" t="e">
+      <c r="K14" s="19">
         <f>(Эксперимент4[[#This Row],[m0
 смесь]]*Эксперимент4[[#This Row],[w%
 спирт ]]-Эксперимент4[[#This Row],[m0
 спирт]])/(1-Эксперимент4[[#This Row],[w%
 спирт ]])</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L14" s="20">
         <f>Эксперимент4[[#This Row],[m1
@@ -3100,7 +3150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="18">
         <v>0.2</v>
@@ -3207,7 +3257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/Experiments/PETA_TMAG_Solves.xlsx
+++ b/Experiments/PETA_TMAG_Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C167128B-A5DB-4B77-A901-A80CDD4F0532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F570250-251E-4595-BE2A-6EE106108B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -434,9 +434,6 @@
     <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,8 +1923,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,16 +1950,16 @@
       <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="32">
+      <c r="X1" s="31">
         <v>4.7346000000000004</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="31">
         <v>8.8680000000000003</v>
       </c>
-      <c r="Z1" s="33">
+      <c r="Z1" s="32">
         <f>(Y1-X1)/5</f>
         <v>0.82667999999999997</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="18">
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="18">
         <v>0.05</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="18">
         <v>0.1</v>
       </c>
@@ -2396,7 +2396,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="18">
         <v>0.15</v>
       </c>
@@ -2513,7 +2513,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="18">
         <v>0.2</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="18">
@@ -2814,7 +2814,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="18">
         <v>0.05</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="18">
         <v>0.1</v>
       </c>
@@ -3044,42 +3044,48 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="18">
         <v>0.15</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="22">
+        <v>27.09656</v>
+      </c>
+      <c r="D14" s="23">
+        <v>39.677500000000002</v>
+      </c>
       <c r="E14" s="28">
         <f>Эксперимент4[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.580940000000002</v>
       </c>
       <c r="F14" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*(1-P13)</f>
-        <v>0</v>
+        <v>11.356400556563255</v>
       </c>
       <c r="G14" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*P13</f>
-        <v>0</v>
+        <v>1.224539443436746</v>
       </c>
       <c r="H14" s="10">
         <f>Эксперимент4[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>906.43167792510837</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40.748199999999997</v>
+      </c>
       <c r="J14" s="9">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>13.651639999999997</v>
       </c>
       <c r="K14" s="19">
         <f>(Эксперимент4[[#This Row],[m0
@@ -3087,26 +3093,26 @@
 спирт ]]-Эксперимент4[[#This Row],[m0
 спирт]])/(1-Эксперимент4[[#This Row],[w%
 спирт ]])</f>
-        <v>0</v>
+        <v>0.77953124301559318</v>
       </c>
       <c r="L14" s="20">
         <f>Эксперимент4[[#This Row],[m1
 смесь]]-Эксперимент4[[#This Row],[m0
 смесь]]</f>
-        <v>0</v>
+        <v>1.0706999999999951</v>
       </c>
       <c r="M14" s="11">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>40.748199999999997</v>
       </c>
       <c r="N14" s="9">
         <f>Эксперимент4[[#This Row],[m2
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>13.651639999999997</v>
       </c>
       <c r="O14" s="21">
         <f>Эксперимент4[[#This Row],[m2
@@ -3116,12 +3122,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P14" s="27" t="e">
+      <c r="P14" s="27">
         <f>(Эксперимент4[[#This Row],[m0
 спирт]]+Эксперимент4[[#This Row],[m+
 спирт]])/Эксперимент4[[#This Row],[m2
 смесь]]</f>
-        <v>#DIV/0!</v>
+        <v>0.16812920963611269</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
@@ -3137,83 +3143,89 @@
 смесь     ]]/Плотности_доп[V пик мл]</f>
         <v>0</v>
       </c>
-      <c r="U14" s="15" t="e">
+      <c r="U14" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="18">
         <v>0.2</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="22">
+        <v>27.09656</v>
+      </c>
+      <c r="D15" s="23">
+        <v>40.027700000000003</v>
+      </c>
       <c r="E15" s="28">
         <f>Эксперимент4[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="29" t="e">
+        <v>12.931140000000003</v>
+      </c>
+      <c r="F15" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*(1-P14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="29" t="e">
+        <v>10.75703765210608</v>
+      </c>
+      <c r="G15" s="29">
         <f>Эксперимент4[[#This Row],[m0
 смесь]]*P14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="10" t="e">
+        <v>2.1741023478939225</v>
+      </c>
+      <c r="H15" s="10">
         <f>Эксперимент4[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>599.01984317743904</v>
+      </c>
+      <c r="I15" s="7">
+        <v>40.512</v>
+      </c>
       <c r="J15" s="9">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="19" t="e">
+        <v>13.41544</v>
+      </c>
+      <c r="K15" s="19">
         <f>(Эксперимент4[[#This Row],[m0
 смесь]]*Эксперимент4[[#This Row],[w%
 спирт ]]-Эксперимент4[[#This Row],[m0
 спирт]])/(1-Эксперимент4[[#This Row],[w%
 спирт ]])</f>
-        <v>#DIV/0!</v>
+        <v>0.51515706513259762</v>
       </c>
       <c r="L15" s="20">
         <f>Эксперимент4[[#This Row],[m1
 смесь]]-Эксперимент4[[#This Row],[m0
 смесь]]</f>
-        <v>0</v>
+        <v>0.48429999999999751</v>
       </c>
       <c r="M15" s="11">
         <f>Эксперимент4[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>40.512</v>
       </c>
       <c r="N15" s="9">
         <f>Эксперимент4[[#This Row],[m2
 смесь
 стакан]]-Эксперимент4[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>13.41544</v>
       </c>
       <c r="O15" s="21">
         <f>Эксперимент4[[#This Row],[m2
@@ -3223,12 +3235,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P15" s="27" t="e">
+      <c r="P15" s="27">
         <f>(Эксперимент4[[#This Row],[m0
 спирт]]+Эксперимент4[[#This Row],[m+
 спирт]])/Эксперимент4[[#This Row],[m2
 смесь]]</f>
-        <v>#DIV/0!</v>
+        <v>0.19815990738238329</v>
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="11"/>
@@ -3244,17 +3256,17 @@
 смесь     ]]/Плотности_доп[V пик мл]</f>
         <v>0</v>
       </c>
-      <c r="U15" s="15" t="e">
+      <c r="U15" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/Experiments/PETA_TMAG_Solves.xlsx
+++ b/Experiments/PETA_TMAG_Solves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F570250-251E-4595-BE2A-6EE106108B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF61D7-409E-492E-AAD2-8EF264447EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1923,8 +1929,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,31 +3022,35 @@
 смесь]]</f>
         <v>9.7332905445598333E-2</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="11"/>
+      <c r="Q13" s="12">
+        <v>4.7342000000000004</v>
+      </c>
+      <c r="R13" s="11">
+        <v>9.9631000000000007</v>
+      </c>
       <c r="S13" s="13">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент4[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.2289000000000003</v>
       </c>
       <c r="T13" s="14">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.0457800000000002</v>
       </c>
       <c r="U13" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>6.8664871732931614</v>
       </c>
       <c r="V13" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>15.82337983410611</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3129,31 +3139,35 @@
 смесь]]</f>
         <v>0.16812920963611269</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="11"/>
+      <c r="Q14" s="12">
+        <v>4.7339000000000002</v>
+      </c>
+      <c r="R14" s="11">
+        <v>9.8773</v>
+      </c>
       <c r="S14" s="13">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент4[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.1433999999999997</v>
       </c>
       <c r="T14" s="14">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.02868</v>
       </c>
       <c r="U14" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>11.666969466303049</v>
       </c>
       <c r="V14" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>14.34390768432605</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3242,31 +3256,35 @@
 смесь]]</f>
         <v>0.19815990738238329</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="11"/>
+      <c r="Q15" s="12">
+        <v>4.7382999999999997</v>
+      </c>
+      <c r="R15" s="11">
+        <v>9.8561999999999994</v>
+      </c>
       <c r="S15" s="13">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент4[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.1178999999999997</v>
       </c>
       <c r="T15" s="14">
         <f>Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.0235799999999999</v>
       </c>
       <c r="U15" s="15">
         <f>Эксперимент4[[#This Row],[w%1 
 ]]*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>13.682711683652178</v>
       </c>
       <c r="V15" s="16">
         <f>(1-Эксперимент4[[#This Row],[w%1 
 ]])*Эксперимент4[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>13.757542693377921</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
